--- a/ol-handback/OpenLocalizationTestOrg/ol-test3/ci/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test3/ci/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>File Name</t>
   </si>
@@ -37,24 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
+  </si>
+  <si>
+    <t>e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:21:18</t>
+  </si>
+  <si>
     <t>5d650f3b-aad8-4966-9709-078e9047b563.md</t>
   </si>
   <si>
     <t>e2e\5d650f3b-aad8-4966-9709-078e9047b563.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2018-12-10 08:17:22</t>
   </si>
   <si>
+    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.md</t>
+  </si>
+  <si>
+    <t>e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md</t>
+  </si>
+  <si>
     <t>e290e99c-711c-4e39-97d5-4f610b32bf41.md</t>
   </si>
   <si>
@@ -73,30 +88,15 @@
     <t>2018-12-10 08:12:37</t>
   </si>
   <si>
-    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
-  </si>
-  <si>
-    <t>e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
+    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
+  </si>
+  <si>
+    <t>e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2018-12-10 08:21:18</t>
-  </si>
-  <si>
-    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
-  </si>
-  <si>
-    <t>e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
-  </si>
-  <si>
-    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.md</t>
-  </si>
-  <si>
-    <t>e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,9 +154,24 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>ht</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
+    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:20:44</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:22:29</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>5d650f3b-aad8-4966-9709-078e9047b563.cabc78d30080eba8d45bfd21e22d776390503a49.zh-cn.xlf</t>
   </si>
   <si>
@@ -166,15 +181,12 @@
     <t>2018-12-10 08:18:32</t>
   </si>
   <si>
-    <t>True</t>
+    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.zh-cn.xlf</t>
   </si>
   <si>
     <t>e290e99c-711c-4e39-97d5-4f610b32bf41.c4a05bf6ec039bcb2fb0f17d19c22783468e53ad.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
     <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.zh-cn.xlf</t>
   </si>
   <si>
@@ -184,16 +196,13 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2018-12-10 08:20:44</t>
-  </si>
-  <si>
     <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.zh-cn.xlf</t>
+    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:23:17</t>
   </si>
   <si>
     <t>5d650f3b-aad8-4966-9709-078e9047b563.cabc78d30080eba8d45bfd21e22d776390503a49.de-de.xlf</t>
@@ -202,19 +211,16 @@
     <t>2018-12-10 08:19:22</t>
   </si>
   <si>
+    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.de-de.xlf</t>
+  </si>
+  <si>
     <t>e290e99c-711c-4e39-97d5-4f610b32bf41.c4a05bf6ec039bcb2fb0f17d19c22783468e53ad.de-de.xlf</t>
   </si>
   <si>
     <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.de-de.xlf</t>
   </si>
   <si>
-    <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.de-de.xlf</t>
-  </si>
-  <si>
     <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -423,15 +429,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -440,22 +446,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -463,69 +469,69 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -632,16 +638,16 @@
         <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -650,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -662,13 +668,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -691,13 +697,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -706,25 +712,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -732,40 +738,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -774,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -788,40 +794,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -830,13 +836,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -844,29 +850,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -877,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -886,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -900,41 +906,41 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -942,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -956,14 +962,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1070,13 +1078,13 @@
         <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1088,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1100,13 +1108,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1129,13 +1137,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1144,10 +1152,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1156,13 +1164,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1170,40 +1178,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1212,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1226,41 +1234,41 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1268,13 +1276,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1282,28 +1290,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1315,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1324,13 +1332,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1338,28 +1346,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1371,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1380,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1394,14 +1402,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test3/ci/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test3/ci/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>File Name</t>
   </si>
@@ -37,22 +37,34 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.md</t>
+  </si>
+  <si>
+    <t>e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:12:37</t>
+  </si>
+  <si>
     <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
   </si>
   <si>
     <t>e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2018-12-10 08:21:18</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:25:10</t>
   </si>
   <si>
     <t>5d650f3b-aad8-4966-9709-078e9047b563.md</t>
@@ -61,7 +73,10 @@
     <t>e2e\5d650f3b-aad8-4966-9709-078e9047b563.md</t>
   </si>
   <si>
-    <t>2018-12-10 08:17:22</t>
+    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
+  </si>
+  <si>
+    <t>e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
   </si>
   <si>
     <t>866ffe3f-d029-4228-984f-3c377e2aa15a.md</t>
@@ -76,27 +91,6 @@
     <t>e2e\e290e99c-711c-4e39-97d5-4f610b32bf41.md</t>
   </si>
   <si>
-    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.md</t>
-  </si>
-  <si>
-    <t>e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2018-12-10 08:12:37</t>
-  </si>
-  <si>
-    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
-  </si>
-  <si>
-    <t>e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -160,43 +154,49 @@
     <t>False</t>
   </si>
   <si>
+    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2018-12-10 08:12:00</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
     <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-12-10 08:20:44</t>
+    <t>2018-12-10 08:24:35</t>
   </si>
   <si>
     <t>2018-12-10 08:22:29</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>5d650f3b-aad8-4966-9709-078e9047b563.cabc78d30080eba8d45bfd21e22d776390503a49.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-12-10 08:16:48</t>
-  </si>
-  <si>
     <t>2018-12-10 08:18:32</t>
   </si>
   <si>
+    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.zh-cn.xlf</t>
   </si>
   <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test3/blob/6ebae9720c6c428bbe588c8adf0bd086b5e9ce56/e2e/866ffe3f-d029-4228-984f-3c377e2aa15a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test3/blob/6016b665660057a384d0f82643e703b903fcd310/e2e/866ffe3f-d029-4228-984f-3c377e2aa15a.md.</t>
+  </si>
+  <si>
     <t>e290e99c-711c-4e39-97d5-4f610b32bf41.c4a05bf6ec039bcb2fb0f17d19c22783468e53ad.zh-cn.xlf</t>
   </si>
   <si>
-    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2018-12-10 08:12:00</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.zh-cn.xlf</t>
+    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.de-de.xlf</t>
   </si>
   <si>
     <t>13cc7e6b-d634-4c77-ba22-3ebd41abcfde.505a84d2c3231970c635a679c1843aa198c61c84.de-de.xlf</t>
@@ -211,16 +211,13 @@
     <t>2018-12-10 08:19:22</t>
   </si>
   <si>
+    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.de-de.xlf</t>
+  </si>
+  <si>
     <t>866ffe3f-d029-4228-984f-3c377e2aa15a.7b066d42b01f5494b3edd139559159bf60b091fe.de-de.xlf</t>
   </si>
   <si>
     <t>e290e99c-711c-4e39-97d5-4f610b32bf41.c4a05bf6ec039bcb2fb0f17d19c22783468e53ad.de-de.xlf</t>
-  </si>
-  <si>
-    <t>030f93b7-09f2-4dfe-84f7-7d7923040015.531abf0c28972799f933e785d5ffdbdaf9f6ac80.de-de.xlf</t>
-  </si>
-  <si>
-    <t>7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.2fdc54f848a2aa58125d87c50768833b22c739c9.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -358,8 +355,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,44 +420,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -469,21 +466,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -492,22 +489,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
@@ -515,23 +512,23 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,7 +547,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -565,63 +562,63 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -635,46 +632,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -688,22 +685,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -712,10 +709,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -724,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -738,55 +735,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -794,40 +791,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -836,13 +833,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -850,111 +847,111 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -962,16 +959,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
+    <hyperlink ref="J3" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId10"/>
+    <hyperlink ref="J7" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -990,7 +987,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1005,63 +1002,63 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1075,16 +1072,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1092,14 +1089,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1108,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1128,22 +1125,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1152,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1164,13 +1161,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1178,40 +1175,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1220,13 +1217,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1234,40 +1231,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1276,13 +1273,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1290,40 +1287,40 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1332,54 +1329,54 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1388,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1402,16 +1399,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="030f93b7-09f2-4dfe-84f7-7d7923040015.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId3"/>
+    <hyperlink ref="J3" display="13cc7e6b-d634-4c77-ba22-3ebd41abcfde.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="5d650f3b-aad8-4966-9709-078e9047b563.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="7c6bfad0-ff7f-4b36-95af-e73d5d3cabd5.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="866ffe3f-d029-4228-984f-3c377e2aa15a.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId10"/>
+    <hyperlink ref="J7" display="e290e99c-711c-4e39-97d5-4f610b32bf41.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
